--- a/lr_estimate/diagrams.xlsx
+++ b/lr_estimate/diagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\DL2020\lr_estimate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFF0146-F698-4BFD-8113-728F2085674D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6FBB96-1465-40B3-82F6-A9763C73E1FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DC92A490-44F9-4AD6-84FE-0B90F5497EB8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{DC92A490-44F9-4AD6-84FE-0B90F5497EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -318,6 +318,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -374,6 +377,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -430,6 +436,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -486,6 +495,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -513,6 +525,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -540,6 +555,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -567,6 +585,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -579,6 +600,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -635,6 +659,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -647,6 +674,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -674,6 +704,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -701,6 +734,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -728,6 +764,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -755,6 +794,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -782,6 +824,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -809,6 +854,9 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -947,6 +995,174 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
@@ -4472,16 +4688,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6239,7 +6455,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39289926-6FF2-42FC-82F1-9DC96174862B}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{39289926-6FF2-42FC-82F1-9DC96174862B}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:I84" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
@@ -6627,7 +6843,7 @@
     <dataField name="Summe von train_loss" fld="2" baseField="0" baseItem="0"/>
     <dataField name="Summe von valid_loss" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="6">
+  <chartFormats count="9">
     <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -6687,6 +6903,42 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
